--- a/REGULAR/OJT/NEW DONE/PERIDO, MARITES.xlsx
+++ b/REGULAR/OJT/NEW DONE/PERIDO, MARITES.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63596932-5DF1-4FD0-A5BD-1CA2D62228D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="254">
   <si>
     <t>PERIOD</t>
   </si>
@@ -788,12 +787,21 @@
   </si>
   <si>
     <t>1/16,27/2022</t>
+  </si>
+  <si>
+    <t>2/21,22/2023</t>
+  </si>
+  <si>
+    <t>TICC</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1190,6 +1198,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1225,9 +1236,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1677,7 +1685,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1728,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1792,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,7 +1852,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,7 +1918,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,7 +1981,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2079,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,7 +2138,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,7 +2203,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2246,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2321,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +2507,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2565,7 +2573,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2631,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,7 +2697,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2745,7 +2753,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2820,7 +2828,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2863,7 +2871,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2929,7 +2937,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2985,7 +2993,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3083,7 +3091,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3146,7 +3154,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3212,38 +3220,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K591" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K591" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3252,14 +3260,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3563,7 +3571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3573,7 +3581,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3581,91 +3589,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K591"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A553" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K568" sqref="K568"/>
+      <pane ySplit="4050" topLeftCell="A562" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="E565" sqref="E565"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="63"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="59"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="64"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="64"/>
+      <c r="K4" s="65"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3673,7 +3685,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3686,24 +3698,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3738,7 +3750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3747,7 +3759,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>182.78999999999996</v>
+        <v>182.03999999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3757,12 +3769,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>210.75</v>
+        <v>212</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3784,7 +3796,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>34001</v>
       </c>
@@ -3804,7 +3816,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>34029</v>
@@ -3825,7 +3837,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A21" si="0">EDATE(A12,1)</f>
         <v>34060</v>
@@ -3846,7 +3858,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>34090</v>
@@ -3867,7 +3879,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>34121</v>
@@ -3888,7 +3900,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>34151</v>
@@ -3909,7 +3921,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>34182</v>
@@ -3930,7 +3942,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>34213</v>
@@ -3951,7 +3963,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>34243</v>
@@ -3972,7 +3984,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>34274</v>
@@ -3993,7 +4005,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>34304</v>
@@ -4018,7 +4030,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>45</v>
       </c>
@@ -4036,7 +4048,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>34335</v>
       </c>
@@ -4056,7 +4068,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f>EDATE(A23,1)</f>
         <v>34366</v>
@@ -4077,7 +4089,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" ref="A25:A33" si="1">EDATE(A24,1)</f>
         <v>34394</v>
@@ -4098,7 +4110,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>34425</v>
@@ -4119,7 +4131,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>34455</v>
@@ -4140,7 +4152,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>34486</v>
@@ -4161,7 +4173,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>34516</v>
@@ -4182,7 +4194,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="1"/>
         <v>34547</v>
@@ -4203,7 +4215,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>34578</v>
@@ -4224,7 +4236,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>34608</v>
@@ -4245,7 +4257,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>34639</v>
@@ -4266,7 +4278,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f>EDATE(A33,1)</f>
         <v>34669</v>
@@ -4291,7 +4303,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>47</v>
       </c>
@@ -4309,7 +4321,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>34700</v>
       </c>
@@ -4329,7 +4341,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A36,1)</f>
         <v>34731</v>
@@ -4350,7 +4362,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" ref="A38:A48" si="2">EDATE(A37,1)</f>
         <v>34759</v>
@@ -4371,7 +4383,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="2"/>
         <v>34790</v>
@@ -4392,7 +4404,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="2"/>
         <v>34820</v>
@@ -4413,7 +4425,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>34851</v>
@@ -4434,7 +4446,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>34881</v>
@@ -4455,7 +4467,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="2"/>
         <v>34912</v>
@@ -4476,7 +4488,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="2"/>
         <v>34943</v>
@@ -4501,7 +4513,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -4519,7 +4531,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f>EDATE(A44,1)</f>
         <v>34973</v>
@@ -4540,7 +4552,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>35004</v>
@@ -4561,7 +4573,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>35034</v>
@@ -4586,7 +4598,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>51</v>
       </c>
@@ -4604,7 +4616,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>35065</v>
       </c>
@@ -4624,7 +4636,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f>EDATE(A50,1)</f>
         <v>35096</v>
@@ -4651,7 +4663,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" ref="A52:A60" si="3">EDATE(A51,1)</f>
         <v>35125</v>
@@ -4678,7 +4690,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" si="3"/>
         <v>35156</v>
@@ -4699,7 +4711,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>35186</v>
@@ -4720,7 +4732,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="3"/>
         <v>35217</v>
@@ -4741,7 +4753,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="3"/>
         <v>35247</v>
@@ -4762,7 +4774,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="3"/>
         <v>35278</v>
@@ -4783,7 +4795,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>35309</v>
@@ -4810,7 +4822,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>35339</v>
@@ -4831,7 +4843,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>35370</v>
@@ -4852,7 +4864,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f>EDATE(A60,1)</f>
         <v>35400</v>
@@ -4879,7 +4891,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>50</v>
@@ -4899,7 +4911,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>58</v>
@@ -4921,7 +4933,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
         <v>60</v>
       </c>
@@ -4939,7 +4951,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>35431</v>
       </c>
@@ -4959,7 +4971,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A65,1)</f>
         <v>35462</v>
@@ -4980,7 +4992,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" ref="A67:A75" si="4">EDATE(A66,1)</f>
         <v>35490</v>
@@ -5001,7 +5013,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="4"/>
         <v>35521</v>
@@ -5022,7 +5034,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="4"/>
         <v>35551</v>
@@ -5049,7 +5061,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="4"/>
         <v>35582</v>
@@ -5070,7 +5082,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f t="shared" si="4"/>
         <v>35612</v>
@@ -5091,7 +5103,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="4"/>
         <v>35643</v>
@@ -5112,7 +5124,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" si="4"/>
         <v>35674</v>
@@ -5133,7 +5145,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f t="shared" si="4"/>
         <v>35704</v>
@@ -5160,7 +5172,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" si="4"/>
         <v>35735</v>
@@ -5181,7 +5193,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A75,1)</f>
         <v>35765</v>
@@ -5206,7 +5218,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>65</v>
@@ -5226,7 +5238,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>66</v>
       </c>
@@ -5244,7 +5256,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>35796</v>
       </c>
@@ -5264,7 +5276,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f>EDATE(A79,1)</f>
         <v>35827</v>
@@ -5285,7 +5297,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" ref="A81:A89" si="5">EDATE(A80,1)</f>
         <v>35855</v>
@@ -5312,7 +5324,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="5"/>
         <v>35886</v>
@@ -5333,7 +5345,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="5"/>
         <v>35916</v>
@@ -5354,7 +5366,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="5"/>
         <v>35947</v>
@@ -5375,7 +5387,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" si="5"/>
         <v>35977</v>
@@ -5402,7 +5414,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="5"/>
         <v>36008</v>
@@ -5423,7 +5435,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="5"/>
         <v>36039</v>
@@ -5444,7 +5456,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f t="shared" si="5"/>
         <v>36069</v>
@@ -5465,7 +5477,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="5"/>
         <v>36100</v>
@@ -5490,7 +5502,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>72</v>
@@ -5512,7 +5524,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f>EDATE(A89,1)</f>
         <v>36130</v>
@@ -5533,7 +5545,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>73</v>
@@ -5553,7 +5565,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>74</v>
       </c>
@@ -5571,7 +5583,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>36161</v>
       </c>
@@ -5595,7 +5607,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>52</v>
@@ -5617,7 +5629,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>75</v>
@@ -5639,7 +5651,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f>EDATE(A94,1)</f>
         <v>36192</v>
@@ -5664,7 +5676,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" ref="A98:A110" si="6">EDATE(A97,1)</f>
         <v>36220</v>
@@ -5689,7 +5701,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="6"/>
         <v>36251</v>
@@ -5714,7 +5726,7 @@
         <v>11049</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>81</v>
@@ -5734,7 +5746,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>80</v>
@@ -5756,7 +5768,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f>EDATE(A99,1)</f>
         <v>36281</v>
@@ -5781,7 +5793,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>83</v>
@@ -5803,7 +5815,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f>EDATE(A102,1)</f>
         <v>36312</v>
@@ -5828,7 +5840,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>86</v>
@@ -5850,7 +5862,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>36342</v>
@@ -5871,7 +5883,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>36373</v>
@@ -5896,7 +5908,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>88</v>
@@ -5918,7 +5930,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f>EDATE(A107,1)</f>
         <v>36404</v>
@@ -5943,7 +5955,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>36434</v>
@@ -5968,7 +5980,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13">
@@ -5986,7 +5998,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f>EDATE(A110,1)</f>
         <v>36465</v>
@@ -6011,7 +6023,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A112,1)</f>
         <v>36495</v>
@@ -6036,7 +6048,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>93</v>
@@ -6056,7 +6068,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
         <v>94</v>
       </c>
@@ -6074,7 +6086,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>36526</v>
       </c>
@@ -6098,7 +6110,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f>EDATE(A116,1)</f>
         <v>36557</v>
@@ -6123,7 +6135,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" ref="A118:A129" si="7">EDATE(A117,1)</f>
         <v>36586</v>
@@ -6148,7 +6160,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="7"/>
         <v>36617</v>
@@ -6173,7 +6185,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>99</v>
@@ -6195,7 +6207,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>36647</v>
@@ -6220,7 +6232,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>102</v>
@@ -6242,7 +6254,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f>EDATE(A121,1)</f>
         <v>36678</v>
@@ -6267,7 +6279,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>36708</v>
@@ -6292,7 +6304,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="7"/>
         <v>36739</v>
@@ -6317,7 +6329,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="7"/>
         <v>36770</v>
@@ -6342,7 +6354,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>107</v>
@@ -6364,7 +6376,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f>EDATE(A126,1)</f>
         <v>36800</v>
@@ -6389,7 +6401,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>36831</v>
@@ -6414,7 +6426,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f>EDATE(A129,1)</f>
         <v>36861</v>
@@ -6439,7 +6451,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>112</v>
@@ -6459,7 +6471,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13">
@@ -6477,7 +6489,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="48" t="s">
         <v>111</v>
       </c>
@@ -6495,7 +6507,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>36892</v>
       </c>
@@ -6515,7 +6527,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f>EDATE(A134,1)</f>
         <v>36923</v>
@@ -6540,7 +6552,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>114</v>
@@ -6560,7 +6572,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13">
@@ -6578,7 +6590,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f>EDATE(A135,1)</f>
         <v>36951</v>
@@ -6599,7 +6611,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A148" si="8">EDATE(A138,1)</f>
         <v>36982</v>
@@ -6620,7 +6632,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>37012</v>
@@ -6645,7 +6657,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f t="shared" si="8"/>
         <v>37043</v>
@@ -6670,7 +6682,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="8"/>
         <v>37073</v>
@@ -6695,7 +6707,7 @@
         <v>11505</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>118</v>
@@ -6717,7 +6729,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>37104</v>
@@ -6742,7 +6754,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>119</v>
@@ -6764,7 +6776,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A144,1)</f>
         <v>37135</v>
@@ -6789,7 +6801,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="8"/>
         <v>37165</v>
@@ -6814,7 +6826,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="8"/>
         <v>37196</v>
@@ -6839,7 +6851,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>54</v>
@@ -6861,7 +6873,7 @@
         <v>47423</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>125</v>
@@ -6883,7 +6895,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A148,1)</f>
         <v>37226</v>
@@ -6908,7 +6920,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>241</v>
@@ -6928,7 +6940,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="48" t="s">
         <v>126</v>
       </c>
@@ -6946,7 +6958,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>37257</v>
       </c>
@@ -6970,7 +6982,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13">
@@ -6988,7 +7000,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f>EDATE(A154,1)</f>
         <v>37288</v>
@@ -7011,7 +7023,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13">
@@ -7029,7 +7041,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f>EDATE(A156,1)</f>
         <v>37316</v>
@@ -7050,7 +7062,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f t="shared" ref="A159:A167" si="9">EDATE(A158,1)</f>
         <v>37347</v>
@@ -7075,7 +7087,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f t="shared" si="9"/>
         <v>37377</v>
@@ -7096,7 +7108,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" si="9"/>
         <v>37408</v>
@@ -7117,7 +7129,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="9"/>
         <v>37438</v>
@@ -7142,7 +7154,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" si="9"/>
         <v>37469</v>
@@ -7163,7 +7175,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f t="shared" si="9"/>
         <v>37500</v>
@@ -7188,7 +7200,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>129</v>
@@ -7210,7 +7222,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f>EDATE(A164,1)</f>
         <v>37530</v>
@@ -7235,7 +7247,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="9"/>
         <v>37561</v>
@@ -7260,7 +7272,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f>EDATE(A167,1)</f>
         <v>37591</v>
@@ -7285,7 +7297,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>241</v>
@@ -7305,7 +7317,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="48" t="s">
         <v>133</v>
       </c>
@@ -7323,7 +7335,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>37622</v>
       </c>
@@ -7343,7 +7355,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f>EDATE(A171,1)</f>
         <v>37653</v>
@@ -7364,7 +7376,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" ref="A173:A182" si="10">EDATE(A172,1)</f>
         <v>37681</v>
@@ -7385,7 +7397,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f t="shared" si="10"/>
         <v>37712</v>
@@ -7406,7 +7418,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f t="shared" si="10"/>
         <v>37742</v>
@@ -7427,7 +7439,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f t="shared" si="10"/>
         <v>37773</v>
@@ -7448,7 +7460,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f t="shared" si="10"/>
         <v>37803</v>
@@ -7469,7 +7481,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" si="10"/>
         <v>37834</v>
@@ -7490,7 +7502,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" si="10"/>
         <v>37865</v>
@@ -7511,7 +7523,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" si="10"/>
         <v>37895</v>
@@ -7532,7 +7544,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" si="10"/>
         <v>37926</v>
@@ -7553,7 +7565,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="10"/>
         <v>37956</v>
@@ -7578,7 +7590,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="48" t="s">
         <v>134</v>
       </c>
@@ -7596,7 +7608,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>37987</v>
       </c>
@@ -7616,7 +7628,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f>EDATE(A184,1)</f>
         <v>38018</v>
@@ -7637,7 +7649,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f t="shared" ref="A186:A196" si="11">EDATE(A185,1)</f>
         <v>38047</v>
@@ -7658,7 +7670,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="11"/>
         <v>38078</v>
@@ -7679,7 +7691,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="11"/>
         <v>38108</v>
@@ -7700,7 +7712,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="11"/>
         <v>38139</v>
@@ -7721,7 +7733,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="11"/>
         <v>38169</v>
@@ -7742,7 +7754,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" si="11"/>
         <v>38200</v>
@@ -7767,7 +7779,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" si="11"/>
         <v>38231</v>
@@ -7788,7 +7800,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="11"/>
         <v>38261</v>
@@ -7813,7 +7825,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13">
@@ -7831,7 +7843,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f>EDATE(A193,1)</f>
         <v>38292</v>
@@ -7852,7 +7864,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="11"/>
         <v>38322</v>
@@ -7877,7 +7889,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="48" t="s">
         <v>137</v>
       </c>
@@ -7895,7 +7907,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>38353</v>
       </c>
@@ -7915,7 +7927,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f>EDATE(A198,1)</f>
         <v>38384</v>
@@ -7936,7 +7948,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" ref="A200:A208" si="12">EDATE(A199,1)</f>
         <v>38412</v>
@@ -7957,7 +7969,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f t="shared" si="12"/>
         <v>38443</v>
@@ -7978,7 +7990,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f t="shared" si="12"/>
         <v>38473</v>
@@ -7999,7 +8011,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f t="shared" si="12"/>
         <v>38504</v>
@@ -8020,7 +8032,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f t="shared" si="12"/>
         <v>38534</v>
@@ -8041,7 +8053,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f t="shared" si="12"/>
         <v>38565</v>
@@ -8062,7 +8074,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" si="12"/>
         <v>38596</v>
@@ -8083,7 +8095,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" si="12"/>
         <v>38626</v>
@@ -8104,7 +8116,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" si="12"/>
         <v>38657</v>
@@ -8125,7 +8137,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>44</v>
@@ -8147,7 +8159,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f>EDATE(A208,1)</f>
         <v>38687</v>
@@ -8172,7 +8184,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="48" t="s">
         <v>139</v>
       </c>
@@ -8190,7 +8202,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>38718</v>
       </c>
@@ -8210,7 +8222,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f>EDATE(A212,1)</f>
         <v>38749</v>
@@ -8231,7 +8243,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" ref="A214:A223" si="13">EDATE(A213,1)</f>
         <v>38777</v>
@@ -8256,7 +8268,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13">
@@ -8274,7 +8286,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f>EDATE(A214,1)</f>
         <v>38808</v>
@@ -8295,7 +8307,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f t="shared" si="13"/>
         <v>38838</v>
@@ -8316,7 +8328,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f t="shared" si="13"/>
         <v>38869</v>
@@ -8337,7 +8349,7 @@
       <c r="J218" s="12"/>
       <c r="K218" s="15"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f t="shared" si="13"/>
         <v>38899</v>
@@ -8362,7 +8374,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" si="13"/>
         <v>38930</v>
@@ -8387,7 +8399,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>143</v>
@@ -8409,7 +8421,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>38961</v>
@@ -8434,7 +8446,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="13"/>
         <v>38991</v>
@@ -8459,7 +8471,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13">
@@ -8477,7 +8489,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f>EDATE(A223,1)</f>
         <v>39022</v>
@@ -8502,7 +8514,7 @@
         <v>47058</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>147</v>
@@ -8522,7 +8534,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>148</v>
@@ -8544,7 +8556,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f>EDATE(A225,1)</f>
         <v>39052</v>
@@ -8565,7 +8577,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="48" t="s">
         <v>149</v>
       </c>
@@ -8583,7 +8595,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>39083</v>
       </c>
@@ -8607,7 +8619,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f>EDATE(A230,1)</f>
         <v>39114</v>
@@ -8632,7 +8644,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f t="shared" ref="A232:A244" si="14">EDATE(A231,1)</f>
         <v>39142</v>
@@ -8657,7 +8669,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>56</v>
@@ -8679,7 +8691,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>157</v>
@@ -8701,7 +8713,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f>EDATE(A232,1)</f>
         <v>39173</v>
@@ -8724,7 +8736,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>147</v>
@@ -8744,7 +8756,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>160</v>
@@ -8766,7 +8778,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f>EDATE(A235,1)</f>
         <v>39203</v>
@@ -8791,7 +8803,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" si="14"/>
         <v>39234</v>
@@ -8816,7 +8828,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>161</v>
@@ -8838,7 +8850,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f>EDATE(A239,1)</f>
         <v>39264</v>
@@ -8863,7 +8875,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>163</v>
@@ -8885,7 +8897,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f>EDATE(A241,1)</f>
         <v>39295</v>
@@ -8910,7 +8922,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f t="shared" si="14"/>
         <v>39326</v>
@@ -8935,7 +8947,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20"/>
       <c r="C245" s="13">
@@ -8953,7 +8965,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f>EDATE(A244,1)</f>
         <v>39356</v>
@@ -8978,7 +8990,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20"/>
       <c r="C247" s="13">
@@ -8996,7 +9008,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f>EDATE(A246,1)</f>
         <v>39387</v>
@@ -9017,7 +9029,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f>EDATE(A248,1)</f>
         <v>39417</v>
@@ -9040,7 +9052,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>166</v>
@@ -9062,7 +9074,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>44</v>
@@ -9084,7 +9096,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="48" t="s">
         <v>150</v>
       </c>
@@ -9102,7 +9114,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>39448</v>
       </c>
@@ -9126,7 +9138,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13">
@@ -9144,7 +9156,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f>EDATE(A253,1)</f>
         <v>39479</v>
@@ -9165,7 +9177,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" ref="A256:A266" si="15">EDATE(A255,1)</f>
         <v>39508</v>
@@ -9186,7 +9198,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f>EDATE(A256,1)</f>
         <v>39539</v>
@@ -9209,7 +9221,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20"/>
       <c r="C258" s="13">
@@ -9227,7 +9239,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f>EDATE(A257,1)</f>
         <v>39569</v>
@@ -9248,7 +9260,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" si="15"/>
         <v>39600</v>
@@ -9269,7 +9281,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="15"/>
         <v>39630</v>
@@ -9294,7 +9306,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20"/>
       <c r="C262" s="13">
@@ -9312,7 +9324,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f>EDATE(A261,1)</f>
         <v>39661</v>
@@ -9333,7 +9345,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f t="shared" si="15"/>
         <v>39692</v>
@@ -9354,7 +9366,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" si="15"/>
         <v>39722</v>
@@ -9375,7 +9387,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="15"/>
         <v>39753</v>
@@ -9400,7 +9412,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>170</v>
@@ -9422,7 +9434,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>39783</v>
@@ -9445,7 +9457,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>93</v>
@@ -9467,7 +9479,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="53" t="s">
         <v>151</v>
       </c>
@@ -9485,7 +9497,7 @@
       <c r="J270" s="12"/>
       <c r="K270" s="15"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>39814</v>
       </c>
@@ -9505,7 +9517,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A271,1)</f>
         <v>39845</v>
@@ -9530,7 +9542,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" ref="A273:A283" si="16">EDATE(A272,1)</f>
         <v>39873</v>
@@ -9551,7 +9563,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f t="shared" si="16"/>
         <v>39904</v>
@@ -9574,7 +9586,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>173</v>
@@ -9596,7 +9608,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f>EDATE(A274,1)</f>
         <v>39934</v>
@@ -9621,7 +9633,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f t="shared" si="16"/>
         <v>39965</v>
@@ -9642,7 +9654,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="16"/>
         <v>39995</v>
@@ -9663,7 +9675,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f t="shared" si="16"/>
         <v>40026</v>
@@ -9684,7 +9696,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f t="shared" si="16"/>
         <v>40057</v>
@@ -9705,7 +9717,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f t="shared" si="16"/>
         <v>40087</v>
@@ -9730,7 +9742,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" si="16"/>
         <v>40118</v>
@@ -9751,7 +9763,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="16"/>
         <v>40148</v>
@@ -9776,7 +9788,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="48" t="s">
         <v>152</v>
       </c>
@@ -9794,7 +9806,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>40179</v>
       </c>
@@ -9814,7 +9826,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A285,1)</f>
         <v>40210</v>
@@ -9839,7 +9851,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f t="shared" ref="A287:A297" si="17">EDATE(A286,1)</f>
         <v>40238</v>
@@ -9864,7 +9876,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f t="shared" si="17"/>
         <v>40269</v>
@@ -9885,7 +9897,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" si="17"/>
         <v>40299</v>
@@ -9910,7 +9922,7 @@
         <v>46508</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20"/>
       <c r="C290" s="13">
@@ -9928,7 +9940,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f>EDATE(A289,1)</f>
         <v>40330</v>
@@ -9949,7 +9961,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f t="shared" si="17"/>
         <v>40360</v>
@@ -9970,7 +9982,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f t="shared" si="17"/>
         <v>40391</v>
@@ -9991,7 +10003,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f t="shared" si="17"/>
         <v>40422</v>
@@ -10012,7 +10024,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f t="shared" si="17"/>
         <v>40452</v>
@@ -10033,7 +10045,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" si="17"/>
         <v>40483</v>
@@ -10054,7 +10066,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f t="shared" si="17"/>
         <v>40513</v>
@@ -10079,7 +10091,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="15" t="s">
         <v>168</v>
@@ -10101,7 +10113,7 @@
       <c r="J298" s="12"/>
       <c r="K298" s="15"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="48" t="s">
         <v>179</v>
       </c>
@@ -10119,7 +10131,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>40544</v>
       </c>
@@ -10143,7 +10155,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>56</v>
@@ -10165,7 +10177,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>100</v>
@@ -10187,7 +10199,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20"/>
       <c r="C303" s="13">
@@ -10205,7 +10217,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f>EDATE(A300,1)</f>
         <v>40575</v>
@@ -10230,7 +10242,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>147</v>
@@ -10250,7 +10262,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20"/>
       <c r="C306" s="13">
@@ -10268,7 +10280,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f>EDATE(A304,1)</f>
         <v>40603</v>
@@ -10293,7 +10305,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" ref="A308:A320" si="18">EDATE(A307,1)</f>
         <v>40634</v>
@@ -10318,7 +10330,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f t="shared" si="18"/>
         <v>40664</v>
@@ -10339,7 +10351,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f t="shared" si="18"/>
         <v>40695</v>
@@ -10364,7 +10376,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>54</v>
@@ -10386,7 +10398,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20"/>
       <c r="C312" s="13">
@@ -10404,7 +10416,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f>EDATE(A310,1)</f>
         <v>40725</v>
@@ -10429,7 +10441,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f t="shared" si="18"/>
         <v>40756</v>
@@ -10454,7 +10466,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f t="shared" si="18"/>
         <v>40787</v>
@@ -10479,7 +10491,7 @@
         <v>46997</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>168</v>
@@ -10501,7 +10513,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>170</v>
@@ -10523,7 +10535,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f>EDATE(A315,1)</f>
         <v>40817</v>
@@ -10548,7 +10560,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="18"/>
         <v>40848</v>
@@ -10569,7 +10581,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="18"/>
         <v>40878</v>
@@ -10594,7 +10606,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20"/>
       <c r="C321" s="13">
@@ -10612,7 +10624,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="48" t="s">
         <v>191</v>
       </c>
@@ -10630,7 +10642,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>40909</v>
       </c>
@@ -10654,7 +10666,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>147</v>
@@ -10674,7 +10686,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>93</v>
@@ -10696,7 +10708,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20"/>
       <c r="C326" s="13">
@@ -10714,7 +10726,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f>EDATE(A323,1)</f>
         <v>40940</v>
@@ -10739,7 +10751,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20"/>
       <c r="C328" s="13">
@@ -10757,7 +10769,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A327,1)</f>
         <v>40969</v>
@@ -10782,7 +10794,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>93</v>
@@ -10804,7 +10816,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>189</v>
@@ -10826,7 +10838,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f>EDATE(A329,1)</f>
         <v>41000</v>
@@ -10847,7 +10859,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f t="shared" ref="A333:A342" si="19">EDATE(A332,1)</f>
         <v>41030</v>
@@ -10868,7 +10880,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="19"/>
         <v>41061</v>
@@ -10889,7 +10901,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="19"/>
         <v>41091</v>
@@ -10914,7 +10926,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>199</v>
@@ -10936,7 +10948,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>41122</v>
@@ -10961,7 +10973,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>200</v>
@@ -10981,7 +10993,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>201</v>
@@ -11003,7 +11015,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f>EDATE(A337,1)</f>
         <v>41153</v>
@@ -11024,7 +11036,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f t="shared" si="19"/>
         <v>41183</v>
@@ -11045,7 +11057,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f t="shared" si="19"/>
         <v>41214</v>
@@ -11066,7 +11078,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f>EDATE(A342,1)</f>
         <v>41244</v>
@@ -11089,7 +11101,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>166</v>
@@ -11109,7 +11121,7 @@
         <v>46357</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13">
@@ -11127,7 +11139,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="48" t="s">
         <v>192</v>
       </c>
@@ -11145,7 +11157,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>41275</v>
       </c>
@@ -11169,7 +11181,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13">
@@ -11187,7 +11199,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f>EDATE(A347,1)</f>
         <v>41306</v>
@@ -11212,7 +11224,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>147</v>
@@ -11232,7 +11244,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20"/>
       <c r="C351" s="13">
@@ -11250,7 +11262,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f>EDATE(A349,1)</f>
         <v>41334</v>
@@ -11271,7 +11283,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <f t="shared" ref="A353:A360" si="20">EDATE(A352,1)</f>
         <v>41365</v>
@@ -11294,7 +11306,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20"/>
       <c r="C354" s="13">
@@ -11312,7 +11324,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f>EDATE(A353,1)</f>
         <v>41395</v>
@@ -11333,7 +11345,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f t="shared" si="20"/>
         <v>41426</v>
@@ -11354,7 +11366,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f t="shared" si="20"/>
         <v>41456</v>
@@ -11379,7 +11391,7 @@
         <v>46204</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13">
@@ -11397,7 +11409,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f>EDATE(A357,1)</f>
         <v>41487</v>
@@ -11418,7 +11430,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f t="shared" si="20"/>
         <v>41518</v>
@@ -11443,7 +11455,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20"/>
       <c r="C361" s="13">
@@ -11461,7 +11473,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <f>EDATE(A360,1)</f>
         <v>41548</v>
@@ -11482,7 +11494,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A362,1)</f>
         <v>41579</v>
@@ -11507,7 +11519,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13">
@@ -11525,7 +11537,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <f>EDATE(A363,1)</f>
         <v>41609</v>
@@ -11548,7 +11560,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>50</v>
@@ -11570,7 +11582,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13">
@@ -11588,7 +11600,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="48" t="s">
         <v>193</v>
       </c>
@@ -11606,7 +11618,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>41640</v>
       </c>
@@ -11628,7 +11640,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13">
@@ -11646,7 +11658,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="41">
         <f>EDATE(A369,1)</f>
         <v>41671</v>
@@ -11667,7 +11679,7 @@
       <c r="J371" s="12"/>
       <c r="K371" s="15"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="41">
         <f t="shared" ref="A372:A383" si="21">EDATE(A371,1)</f>
         <v>41699</v>
@@ -11688,7 +11700,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="41">
         <f t="shared" si="21"/>
         <v>41730</v>
@@ -11713,7 +11725,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>147</v>
@@ -11733,7 +11745,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13">
@@ -11751,7 +11763,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="41">
         <f>EDATE(A373,1)</f>
         <v>41760</v>
@@ -11772,7 +11784,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="41">
         <f t="shared" si="21"/>
         <v>41791</v>
@@ -11797,7 +11809,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13">
@@ -11815,7 +11827,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="41">
         <f>EDATE(A377,1)</f>
         <v>41821</v>
@@ -11836,7 +11848,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="41">
         <f t="shared" si="21"/>
         <v>41852</v>
@@ -11861,7 +11873,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13">
@@ -11879,7 +11891,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="41">
         <f>EDATE(A380,1)</f>
         <v>41883</v>
@@ -11900,7 +11912,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="41">
         <f t="shared" si="21"/>
         <v>41913</v>
@@ -11925,7 +11937,7 @@
         <v>41548</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13">
@@ -11943,7 +11955,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="41">
         <f>EDATE(A383,1)</f>
         <v>41944</v>
@@ -11966,7 +11978,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>50</v>
@@ -11988,7 +12000,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13">
@@ -12006,7 +12018,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="41">
         <f>EDATE(A385,1)</f>
         <v>41974</v>
@@ -12027,7 +12039,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="48" t="s">
         <v>194</v>
       </c>
@@ -12045,7 +12057,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>42005</v>
       </c>
@@ -12065,7 +12077,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A390,1)</f>
         <v>42036</v>
@@ -12086,7 +12098,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" ref="A392:A401" si="22">EDATE(A391,1)</f>
         <v>42064</v>
@@ -12111,7 +12123,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13">
@@ -12129,7 +12141,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f>EDATE(A392,1)</f>
         <v>42095</v>
@@ -12152,7 +12164,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13">
@@ -12170,7 +12182,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <f>EDATE(A394,1)</f>
         <v>42125</v>
@@ -12191,7 +12203,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f t="shared" si="22"/>
         <v>42156</v>
@@ -12212,7 +12224,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f t="shared" si="22"/>
         <v>42186</v>
@@ -12233,7 +12245,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f t="shared" si="22"/>
         <v>42217</v>
@@ -12254,7 +12266,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f t="shared" si="22"/>
         <v>42248</v>
@@ -12275,7 +12287,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f t="shared" si="22"/>
         <v>42278</v>
@@ -12300,7 +12312,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13">
@@ -12318,7 +12330,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f>EDATE(A401,1)</f>
         <v>42309</v>
@@ -12339,7 +12351,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f>EDATE(A403,1)</f>
         <v>42339</v>
@@ -12362,7 +12374,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>50</v>
@@ -12384,7 +12396,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13">
@@ -12402,7 +12414,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="48" t="s">
         <v>213</v>
       </c>
@@ -12420,7 +12432,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>42370</v>
       </c>
@@ -12440,7 +12452,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f>EDATE(A408,1)</f>
         <v>42401</v>
@@ -12465,7 +12477,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13">
@@ -12483,7 +12495,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f>EDATE(A409,1)</f>
         <v>42430</v>
@@ -12504,7 +12516,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f t="shared" ref="A412:A428" si="23">EDATE(A411,1)</f>
         <v>42461</v>
@@ -12527,7 +12539,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13">
@@ -12545,7 +12557,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f>EDATE(A412,1)</f>
         <v>42491</v>
@@ -12566,7 +12578,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f t="shared" si="23"/>
         <v>42522</v>
@@ -12591,7 +12603,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13">
@@ -12609,7 +12621,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f>EDATE(A415,1)</f>
         <v>42552</v>
@@ -12634,7 +12646,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13">
@@ -12652,7 +12664,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f>EDATE(A417,1)</f>
         <v>42583</v>
@@ -12677,7 +12689,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13">
@@ -12695,7 +12707,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f>EDATE(A419,1)</f>
         <v>42614</v>
@@ -12720,7 +12732,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13">
@@ -12738,7 +12750,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f>EDATE(A421,1)</f>
         <v>42644</v>
@@ -12763,7 +12775,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>54</v>
@@ -12785,7 +12797,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>54</v>
@@ -12805,7 +12817,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13">
@@ -12823,7 +12835,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f>EDATE(A423,1)</f>
         <v>42675</v>
@@ -12844,7 +12856,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <f t="shared" si="23"/>
         <v>42705</v>
@@ -12865,7 +12877,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="48" t="s">
         <v>219</v>
       </c>
@@ -12883,7 +12895,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>42736</v>
       </c>
@@ -12907,7 +12919,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13">
@@ -12925,7 +12937,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f>EDATE(A430,1)</f>
         <v>42767</v>
@@ -12946,7 +12958,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" ref="A433:A453" si="24">EDATE(A432,1)</f>
         <v>42795</v>
@@ -12971,7 +12983,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13">
@@ -12989,7 +13001,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f>EDATE(A433,1)</f>
         <v>42826</v>
@@ -13014,7 +13026,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13">
@@ -13032,7 +13044,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f>EDATE(A435,1)</f>
         <v>42856</v>
@@ -13055,7 +13067,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>54</v>
@@ -13075,7 +13087,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13">
@@ -13093,7 +13105,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <f>EDATE(A437,1)</f>
         <v>42887</v>
@@ -13118,7 +13130,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13">
@@ -13136,7 +13148,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f>EDATE(A440,1)</f>
         <v>42917</v>
@@ -13161,7 +13173,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>54</v>
@@ -13183,7 +13195,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>54</v>
@@ -13205,7 +13217,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>54</v>
@@ -13227,7 +13239,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13">
@@ -13245,7 +13257,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f>EDATE(A442,1)</f>
         <v>42948</v>
@@ -13270,7 +13282,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13">
@@ -13288,7 +13300,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f>EDATE(A447,1)</f>
         <v>42979</v>
@@ -13313,7 +13325,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>54</v>
@@ -13335,7 +13347,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13">
@@ -13353,7 +13365,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <f>EDATE(A449,1)</f>
         <v>43009</v>
@@ -13374,7 +13386,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f t="shared" si="24"/>
         <v>43040</v>
@@ -13399,7 +13411,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>147</v>
@@ -13419,7 +13431,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>46</v>
@@ -13439,7 +13451,7 @@
         <v>46357</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13">
@@ -13457,7 +13469,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f>EDATE(A453,1)</f>
         <v>43070</v>
@@ -13478,7 +13490,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="48" t="s">
         <v>226</v>
       </c>
@@ -13496,7 +13508,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>43101</v>
       </c>
@@ -13520,7 +13532,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13">
@@ -13538,7 +13550,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="41">
         <f>EDATE(A459,1)</f>
         <v>43132</v>
@@ -13563,7 +13575,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13">
@@ -13581,7 +13593,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="41">
         <f>EDATE(A461,1)</f>
         <v>43160</v>
@@ -13606,7 +13618,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>54</v>
@@ -13628,7 +13640,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>147</v>
@@ -13648,7 +13660,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20"/>
       <c r="C466" s="13">
@@ -13666,7 +13678,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="41">
         <f>EDATE(A463,1)</f>
         <v>43191</v>
@@ -13691,7 +13703,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20"/>
       <c r="C468" s="13">
@@ -13709,7 +13721,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="41">
         <f>EDATE(A467,1)</f>
         <v>43221</v>
@@ -13734,7 +13746,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>54</v>
@@ -13756,7 +13768,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20"/>
       <c r="C471" s="13">
@@ -13774,7 +13786,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="41">
         <f>EDATE(A469,1)</f>
         <v>43252</v>
@@ -13799,7 +13811,7 @@
         <v>46539</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20"/>
       <c r="C473" s="13">
@@ -13817,7 +13829,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="41">
         <f>EDATE(A472,1)</f>
         <v>43282</v>
@@ -13842,7 +13854,7 @@
         <v>46569</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20"/>
       <c r="C475" s="13">
@@ -13860,7 +13872,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="41">
         <f>EDATE(A474,1)</f>
         <v>43313</v>
@@ -13885,7 +13897,7 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20"/>
       <c r="C477" s="13">
@@ -13903,7 +13915,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="41">
         <f>EDATE(A476,1)</f>
         <v>43344</v>
@@ -13924,7 +13936,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="15"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="41">
         <f t="shared" ref="A479" si="25">EDATE(A478,1)</f>
         <v>43374</v>
@@ -13949,7 +13961,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>54</v>
@@ -13971,7 +13983,7 @@
         <v>44835</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20"/>
       <c r="C481" s="13">
@@ -13989,7 +14001,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="41">
         <f>EDATE(A479,1)</f>
         <v>43405</v>
@@ -14014,7 +14026,7 @@
         <v>41944</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>54</v>
@@ -14036,7 +14048,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13">
@@ -14054,7 +14066,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="41">
         <f>EDATE(A482,1)</f>
         <v>43435</v>
@@ -14079,7 +14091,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>147</v>
@@ -14099,7 +14111,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>123</v>
@@ -14119,7 +14131,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13">
@@ -14137,7 +14149,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="48" t="s">
         <v>228</v>
       </c>
@@ -14155,7 +14167,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>43466</v>
       </c>
@@ -14179,7 +14191,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>46</v>
@@ -14201,7 +14213,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13">
@@ -14219,7 +14231,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <f>EDATE(A490,1)</f>
         <v>43497</v>
@@ -14244,7 +14256,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20"/>
       <c r="C494" s="13">
@@ -14262,7 +14274,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <f>EDATE(A493,1)</f>
         <v>43525</v>
@@ -14283,7 +14295,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <f t="shared" ref="A496:A513" si="26">EDATE(A495,1)</f>
         <v>43556</v>
@@ -14308,7 +14320,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>54</v>
@@ -14328,7 +14340,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13">
@@ -14346,7 +14358,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f>EDATE(A496,1)</f>
         <v>43586</v>
@@ -14369,7 +14381,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20"/>
       <c r="C500" s="13">
@@ -14387,7 +14399,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f>EDATE(A499,1)</f>
         <v>43617</v>
@@ -14412,7 +14424,7 @@
         <v>42887</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13">
@@ -14430,7 +14442,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <f>EDATE(A501,1)</f>
         <v>43647</v>
@@ -14455,7 +14467,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>147</v>
@@ -14475,7 +14487,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13">
@@ -14493,7 +14505,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <f>EDATE(A503,1)</f>
         <v>43678</v>
@@ -14518,7 +14530,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13">
@@ -14536,7 +14548,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <f>EDATE(A506,1)</f>
         <v>43709</v>
@@ -14561,7 +14573,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>46</v>
@@ -14583,7 +14595,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>54</v>
@@ -14605,7 +14617,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13">
@@ -14623,7 +14635,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <f>EDATE(A508,1)</f>
         <v>43739</v>
@@ -14644,7 +14656,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <f t="shared" si="26"/>
         <v>43770</v>
@@ -14669,7 +14681,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>54</v>
@@ -14691,7 +14703,7 @@
         <v>47058</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>147</v>
@@ -14711,7 +14723,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13">
@@ -14729,7 +14741,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <f>EDATE(A513,1)</f>
         <v>43800</v>
@@ -14754,7 +14766,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="48" t="s">
         <v>233</v>
       </c>
@@ -14772,7 +14784,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>43831</v>
       </c>
@@ -14796,7 +14808,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>244</v>
@@ -14818,7 +14830,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20"/>
       <c r="C521" s="13">
@@ -14836,7 +14848,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <f>EDATE(A519,1)</f>
         <v>43862</v>
@@ -14857,7 +14869,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <f t="shared" ref="A523:A531" si="27">EDATE(A522,1)</f>
         <v>43891</v>
@@ -14878,7 +14890,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <f t="shared" si="27"/>
         <v>43922</v>
@@ -14899,7 +14911,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <f t="shared" si="27"/>
         <v>43952</v>
@@ -14920,7 +14932,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <f t="shared" si="27"/>
         <v>43983</v>
@@ -14941,7 +14953,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <f t="shared" si="27"/>
         <v>44013</v>
@@ -14962,7 +14974,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <f t="shared" si="27"/>
         <v>44044</v>
@@ -14983,7 +14995,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <f t="shared" si="27"/>
         <v>44075</v>
@@ -15004,7 +15016,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <f t="shared" si="27"/>
         <v>44105</v>
@@ -15025,7 +15037,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <f t="shared" si="27"/>
         <v>44136</v>
@@ -15046,7 +15058,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <f>EDATE(A531,1)</f>
         <v>44166</v>
@@ -15071,7 +15083,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="48" t="s">
         <v>234</v>
       </c>
@@ -15089,7 +15101,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>44197</v>
       </c>
@@ -15109,7 +15121,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <f>EDATE(A534,1)</f>
         <v>44228</v>
@@ -15130,7 +15142,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <f t="shared" ref="A536:A544" si="28">EDATE(A535,1)</f>
         <v>44256</v>
@@ -15151,7 +15163,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <f t="shared" si="28"/>
         <v>44287</v>
@@ -15172,7 +15184,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <f t="shared" si="28"/>
         <v>44317</v>
@@ -15193,7 +15205,7 @@
       <c r="J538" s="12"/>
       <c r="K538" s="15"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <f t="shared" si="28"/>
         <v>44348</v>
@@ -15214,7 +15226,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <f t="shared" si="28"/>
         <v>44378</v>
@@ -15235,7 +15247,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <f t="shared" si="28"/>
         <v>44409</v>
@@ -15256,7 +15268,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <f t="shared" si="28"/>
         <v>44440</v>
@@ -15277,7 +15289,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <f t="shared" si="28"/>
         <v>44470</v>
@@ -15298,7 +15310,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <f t="shared" si="28"/>
         <v>44501</v>
@@ -15319,7 +15331,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <f>EDATE(A544,1)</f>
         <v>44531</v>
@@ -15344,7 +15356,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="48" t="s">
         <v>238</v>
       </c>
@@ -15362,7 +15374,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>44562</v>
       </c>
@@ -15382,7 +15394,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <f>EDATE(A547,1)</f>
         <v>44593</v>
@@ -15407,7 +15419,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20"/>
       <c r="C549" s="13">
@@ -15425,7 +15437,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <f>EDATE(A548,1)</f>
         <v>44621</v>
@@ -15446,7 +15458,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <f t="shared" ref="A551:A557" si="29">EDATE(A550,1)</f>
         <v>44652</v>
@@ -15469,7 +15481,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20"/>
       <c r="C552" s="13">
@@ -15487,7 +15499,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <f>EDATE(A551,1)</f>
         <v>44682</v>
@@ -15512,7 +15524,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13">
@@ -15530,7 +15542,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <f>EDATE(A553,1)</f>
         <v>44713</v>
@@ -15551,7 +15563,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <f>EDATE(A555,1)</f>
         <v>44743</v>
@@ -15572,7 +15584,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <f t="shared" si="29"/>
         <v>44774</v>
@@ -15597,7 +15609,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>54</v>
@@ -15619,7 +15631,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20"/>
       <c r="C559" s="13">
@@ -15637,7 +15649,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <f>EDATE(A557,1)</f>
         <v>44805</v>
@@ -15662,7 +15674,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13">
@@ -15680,7 +15692,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>44835</v>
       </c>
@@ -15706,7 +15718,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="41">
         <v>44866</v>
       </c>
@@ -15728,11 +15740,11 @@
       </c>
       <c r="I563" s="52"/>
       <c r="J563" s="12"/>
-      <c r="K563" s="69">
+      <c r="K563" s="57">
         <v>44875</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="41">
         <v>44896</v>
       </c>
@@ -15758,7 +15770,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="41"/>
       <c r="B565" s="15" t="s">
         <v>249</v>
@@ -15774,11 +15786,11 @@
       <c r="H565" s="43"/>
       <c r="I565" s="52"/>
       <c r="J565" s="12"/>
-      <c r="K565" s="69">
+      <c r="K565" s="57">
         <v>44914</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="53" t="s">
         <v>245</v>
       </c>
@@ -15796,7 +15808,7 @@
       <c r="J566" s="12"/>
       <c r="K566" s="15"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="41">
         <v>44927</v>
       </c>
@@ -15822,15 +15834,19 @@
         <v>250</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="41">
         <v>44958</v>
       </c>
-      <c r="B568" s="20"/>
+      <c r="B568" s="20" t="s">
+        <v>241</v>
+      </c>
       <c r="C568" s="13">
         <v>1.25</v>
       </c>
-      <c r="D568" s="39"/>
+      <c r="D568" s="39">
+        <v>2</v>
+      </c>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
       <c r="G568" s="13">
@@ -15840,27 +15856,31 @@
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="20"/>
-    </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K568" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="41">
         <v>44986</v>
       </c>
       <c r="B569" s="20"/>
-      <c r="C569" s="13"/>
+      <c r="C569" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D569" s="39"/>
       <c r="E569" s="9"/>
       <c r="F569" s="20"/>
-      <c r="G569" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G569" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H569" s="39"/>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="41">
         <v>45017</v>
       </c>
@@ -15878,7 +15898,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="41">
         <v>45047</v>
       </c>
@@ -15896,7 +15916,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="41">
         <v>45078</v>
       </c>
@@ -15914,7 +15934,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="41">
         <v>45108</v>
       </c>
@@ -15932,7 +15952,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="41">
         <v>45139</v>
       </c>
@@ -15950,7 +15970,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="41">
         <v>45170</v>
       </c>
@@ -15968,7 +15988,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15984,7 +16004,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16000,7 +16020,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16016,7 +16036,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16032,7 +16052,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16048,7 +16068,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16064,7 +16084,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16080,7 +16100,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -16096,7 +16116,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16112,7 +16132,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -16128,7 +16148,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -16144,7 +16164,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -16160,7 +16180,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -16176,7 +16196,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -16192,7 +16212,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -16208,7 +16228,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="41"/>
       <c r="B591" s="15"/>
       <c r="C591" s="42"/>
@@ -16239,10 +16259,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16265,7 +16285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -16273,34 +16293,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="67" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="J1" s="68" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="J1" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16329,7 +16349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -16355,17 +16375,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16379,14 +16399,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16413,7 +16433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16439,7 +16459,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16465,7 +16485,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16491,7 +16511,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16517,7 +16537,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16543,7 +16563,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16569,7 +16589,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16595,7 +16615,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16615,7 +16635,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16635,7 +16655,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16655,7 +16675,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16676,7 +16696,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16697,7 +16717,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16718,7 +16738,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16739,7 +16759,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16760,7 +16780,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16781,7 +16801,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16802,7 +16822,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16823,7 +16843,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16844,7 +16864,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16865,7 +16885,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16886,7 +16906,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16907,7 +16927,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16928,7 +16948,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16949,7 +16969,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16970,7 +16990,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16991,7 +17011,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17012,7 +17032,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17033,7 +17053,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17054,7 +17074,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17075,7 +17095,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17084,7 +17104,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17093,7 +17113,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17102,7 +17122,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17111,7 +17131,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17120,7 +17140,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17129,7 +17149,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17138,7 +17158,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17147,7 +17167,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17156,7 +17176,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17165,7 +17185,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17174,7 +17194,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17183,7 +17203,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17192,7 +17212,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17201,7 +17221,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17210,7 +17230,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17219,7 +17239,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17228,7 +17248,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17237,7 +17257,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17246,7 +17266,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17255,7 +17275,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17264,7 +17284,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17273,7 +17293,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17282,7 +17302,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17291,7 +17311,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17300,7 +17320,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17309,7 +17329,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17318,7 +17338,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17327,7 +17347,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17336,7 +17356,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/PERIDO, MARITES.xlsx
+++ b/REGULAR/OJT/NEW DONE/PERIDO, MARITES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="254">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1685,7 +1685,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1728,7 +1728,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1792,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1852,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1918,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1981,7 +1981,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2079,7 +2079,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2138,7 +2138,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2203,7 +2203,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,7 +2246,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2321,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2507,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2573,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2631,7 +2631,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2697,7 +2697,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2753,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2828,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,7 +2871,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2937,7 +2937,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +2993,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3091,7 +3091,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3154,7 +3154,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3598,7 +3598,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A562" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E565" sqref="E565"/>
+      <selection pane="bottomLeft" activeCell="B570" sqref="B570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15864,7 +15864,9 @@
       <c r="A569" s="41">
         <v>44986</v>
       </c>
-      <c r="B569" s="20"/>
+      <c r="B569" s="20" t="s">
+        <v>249</v>
+      </c>
       <c r="C569" s="13">
         <v>1.25</v>
       </c>
@@ -15878,7 +15880,9 @@
       <c r="H569" s="39"/>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="20"/>
+      <c r="K569" s="56">
+        <v>44999</v>
+      </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="41">

--- a/REGULAR/OJT/NEW DONE/PERIDO, MARITES.xlsx
+++ b/REGULAR/OJT/NEW DONE/PERIDO, MARITES.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="255">
   <si>
     <t>PERIOD</t>
   </si>
@@ -796,6 +796,9 @@
   </si>
   <si>
     <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1688,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1728,7 +1731,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1792,7 +1795,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1855,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1921,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1981,7 +1984,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2079,7 +2082,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2138,7 +2141,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2203,7 +2206,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,7 +2249,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2324,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2510,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2576,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2631,7 +2634,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2697,7 +2700,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2756,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2831,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,7 +2874,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2937,7 +2940,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +2996,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3091,7 +3094,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3154,7 +3157,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16293,8 +16296,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16390,6 +16393,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16411,6 +16417,10 @@
       <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>394.03999999999996</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17107,6 +17117,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G38"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
